--- a/biology/Botanique/Cardamine_à_feuilles_de_réséda/Cardamine_à_feuilles_de_réséda.xlsx
+++ b/biology/Botanique/Cardamine_à_feuilles_de_réséda/Cardamine_à_feuilles_de_réséda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_feuilles_de_r%C3%A9s%C3%A9da</t>
+          <t>Cardamine_à_feuilles_de_réséda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine resedifolia
 La Cardamine à feuilles de réséda (Cardamine resedifolia) est une espèce de plantes à fleurs de la famille des Brassicacées (ou Crucifères).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_feuilles_de_r%C3%A9s%C3%A9da</t>
+          <t>Cardamine_à_feuilles_de_réséda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée haute de 3 à 15 cm. Les feuilles inférieures sont entières, les supérieures divisées en 5 à 7 folioles ovales. Les pétioles sont munis de petites oreillettes. Les petites fleurs blanches sont disposées en grappes de 6 à 12. Elles ne s'épanouissent pas toutes en même temps, mais au fur et à mesure que la tige s'allonge ; en conséquence, les fruits ne sont pas mûrs simultanément.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_feuilles_de_r%C3%A9s%C3%A9da</t>
+          <t>Cardamine_à_feuilles_de_réséda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : Alpes, Massif central, Pyrénées, Corse. Altitude de 1 700 à 3 300 m, parfois abyssale jusqu'à 1 000 m.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_feuilles_de_r%C3%A9s%C3%A9da</t>
+          <t>Cardamine_à_feuilles_de_réséda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers, éboulis, pelouses humides, combes à neige, sur silice.
 </t>
